--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam11</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H2">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I2">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J2">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N2">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q2">
-        <v>0.06057674690933335</v>
+        <v>0.033800388352</v>
       </c>
       <c r="R2">
-        <v>0.5451907221840001</v>
+        <v>0.304203495168</v>
       </c>
       <c r="S2">
-        <v>0.002549139145950139</v>
+        <v>0.001520020821696524</v>
       </c>
       <c r="T2">
-        <v>0.002549139145950139</v>
+        <v>0.001520020821696525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H3">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I3">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J3">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.143456</v>
       </c>
       <c r="O3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q3">
-        <v>0.1390509921173333</v>
+        <v>0.09013661171200001</v>
       </c>
       <c r="R3">
-        <v>1.251458929056</v>
+        <v>0.8112295054080001</v>
       </c>
       <c r="S3">
-        <v>0.005851425594379108</v>
+        <v>0.00405348971652593</v>
       </c>
       <c r="T3">
-        <v>0.005851425594379109</v>
+        <v>0.00405348971652593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H4">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I4">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J4">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N4">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q4">
-        <v>0.2324201196756667</v>
+        <v>0.144473388628</v>
       </c>
       <c r="R4">
-        <v>2.091781077081</v>
+        <v>1.300260497652</v>
       </c>
       <c r="S4">
-        <v>0.009780505814523582</v>
+        <v>0.006497042477993299</v>
       </c>
       <c r="T4">
-        <v>0.009780505814523582</v>
+        <v>0.006497042477993298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H5">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I5">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J5">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N5">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q5">
-        <v>0.006729077392000002</v>
+        <v>0.007151152860000002</v>
       </c>
       <c r="R5">
-        <v>0.06056169652800001</v>
+        <v>0.06436037574</v>
       </c>
       <c r="S5">
-        <v>0.0002831673120669406</v>
+        <v>0.0003215910164443857</v>
       </c>
       <c r="T5">
-        <v>0.0002831673120669406</v>
+        <v>0.0003215910164443856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>29.070453</v>
       </c>
       <c r="I6">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J6">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N6">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O6">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P6">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q6">
-        <v>3.016169320461334</v>
+        <v>2.596236936725333</v>
       </c>
       <c r="R6">
-        <v>27.145523884152</v>
+        <v>23.366132430528</v>
       </c>
       <c r="S6">
-        <v>0.1269238722427531</v>
+        <v>0.1167541082896049</v>
       </c>
       <c r="T6">
-        <v>0.1269238722427531</v>
+        <v>0.1167541082896049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>29.070453</v>
       </c>
       <c r="I7">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J7">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.143456</v>
       </c>
       <c r="O7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q7">
         <v>6.923470767285333</v>
@@ -883,10 +883,10 @@
         <v>62.311236905568</v>
       </c>
       <c r="S7">
-        <v>0.2913476087638711</v>
+        <v>0.3113520358134647</v>
       </c>
       <c r="T7">
-        <v>0.2913476087638711</v>
+        <v>0.3113520358134648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>29.070453</v>
       </c>
       <c r="I8">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J8">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N8">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O8">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P8">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q8">
-        <v>11.57240146079367</v>
+        <v>11.09712539464634</v>
       </c>
       <c r="R8">
-        <v>104.151613147143</v>
+        <v>99.87412855181701</v>
       </c>
       <c r="S8">
-        <v>0.4869799565254397</v>
+        <v>0.4990434277019661</v>
       </c>
       <c r="T8">
-        <v>0.4869799565254396</v>
+        <v>0.4990434277019661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>29.070453</v>
       </c>
       <c r="I9">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J9">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N9">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O9">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P9">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q9">
-        <v>0.3350466609760001</v>
+        <v>0.5492862094350001</v>
       </c>
       <c r="R9">
-        <v>3.015419948784</v>
+        <v>4.943575884915</v>
       </c>
       <c r="S9">
-        <v>0.0140991486467923</v>
+        <v>0.02470168291313596</v>
       </c>
       <c r="T9">
-        <v>0.01409914864679229</v>
+        <v>0.02470168291313596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H10">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I10">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J10">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N10">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O10">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P10">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q10">
-        <v>0.201617038576</v>
+        <v>0.09752848297955555</v>
       </c>
       <c r="R10">
-        <v>1.814553347184</v>
+        <v>0.877756346816</v>
       </c>
       <c r="S10">
-        <v>0.008484276752164687</v>
+        <v>0.004385905963374166</v>
       </c>
       <c r="T10">
-        <v>0.008484276752164687</v>
+        <v>0.004385905963374167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H11">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I11">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J11">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.143456</v>
       </c>
       <c r="O11">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P11">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q11">
-        <v>0.4628021587839999</v>
+        <v>0.2600824259662222</v>
       </c>
       <c r="R11">
-        <v>4.165219429056</v>
+        <v>2.340741833696</v>
       </c>
       <c r="S11">
-        <v>0.01947524685589805</v>
+        <v>0.01169604025578039</v>
       </c>
       <c r="T11">
-        <v>0.01947524685589806</v>
+        <v>0.01169604025578039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H12">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I12">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J12">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N12">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q12">
-        <v>0.773561781134</v>
+        <v>0.4168671163498889</v>
       </c>
       <c r="R12">
-        <v>6.962056030205999</v>
+        <v>3.751804047149</v>
       </c>
       <c r="S12">
-        <v>0.03255236899814062</v>
+        <v>0.0187467282959465</v>
       </c>
       <c r="T12">
-        <v>0.03255236899814062</v>
+        <v>0.0187467282959465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,309 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3640136666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.092041</v>
+      </c>
+      <c r="I13">
+        <v>0.03575660124916825</v>
+      </c>
+      <c r="J13">
+        <v>0.03575660124916825</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.6477419999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.943226</v>
-      </c>
-      <c r="I13">
-        <v>0.06145435580855908</v>
-      </c>
-      <c r="J13">
-        <v>0.06145435580855908</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N13">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O13">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P13">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q13">
-        <v>0.022396327392</v>
+        <v>0.020634114695</v>
       </c>
       <c r="R13">
-        <v>0.201566946528</v>
+        <v>0.185707032255</v>
       </c>
       <c r="S13">
-        <v>0.0009424632023557253</v>
+        <v>0.0009279267340671954</v>
       </c>
       <c r="T13">
-        <v>0.0009424632023557253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.023109</v>
-      </c>
-      <c r="I14">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J14">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.3112613333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.9337839999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.1380581838428943</v>
-      </c>
-      <c r="P14">
-        <v>0.1380581838428943</v>
-      </c>
-      <c r="Q14">
-        <v>0.002397646050666667</v>
-      </c>
-      <c r="R14">
-        <v>0.021578814456</v>
-      </c>
-      <c r="S14">
-        <v>0.0001008957020263077</v>
-      </c>
-      <c r="T14">
-        <v>0.0001008957020263077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.023109</v>
-      </c>
-      <c r="I15">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J15">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.7144853333333333</v>
-      </c>
-      <c r="N15">
-        <v>2.143456</v>
-      </c>
-      <c r="O15">
-        <v>0.3169058824172986</v>
-      </c>
-      <c r="P15">
-        <v>0.3169058824172986</v>
-      </c>
-      <c r="Q15">
-        <v>0.005503680522666667</v>
-      </c>
-      <c r="R15">
-        <v>0.049533124704</v>
-      </c>
-      <c r="S15">
-        <v>0.0002316012031503017</v>
-      </c>
-      <c r="T15">
-        <v>0.0002316012031503017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.023109</v>
-      </c>
-      <c r="I16">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J16">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.194243666666667</v>
-      </c>
-      <c r="N16">
-        <v>3.582731</v>
-      </c>
-      <c r="O16">
-        <v>0.529699946730332</v>
-      </c>
-      <c r="P16">
-        <v>0.529699946730332</v>
-      </c>
-      <c r="Q16">
-        <v>0.009199258964333334</v>
-      </c>
-      <c r="R16">
-        <v>0.08279333067900001</v>
-      </c>
-      <c r="S16">
-        <v>0.0003871153922281977</v>
-      </c>
-      <c r="T16">
-        <v>0.0003871153922281976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.023109</v>
-      </c>
-      <c r="I17">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J17">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.034576</v>
-      </c>
-      <c r="N17">
-        <v>0.103728</v>
-      </c>
-      <c r="O17">
-        <v>0.01533598700947514</v>
-      </c>
-      <c r="P17">
-        <v>0.01533598700947514</v>
-      </c>
-      <c r="Q17">
-        <v>0.0002663389280000001</v>
-      </c>
-      <c r="R17">
-        <v>0.002397050352</v>
-      </c>
-      <c r="S17">
-        <v>1.120784826018099E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.120784826018099E-05</v>
+        <v>0.0009279267340671954</v>
       </c>
     </row>
   </sheetData>
